--- a/src/main/resources/InfoOut.xlsx
+++ b/src/main/resources/InfoOut.xlsx
@@ -6,18 +6,55 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Второй" r:id="rId3" sheetId="1"/>
+    <sheet name="Главный" r:id="rId3" sheetId="1"/>
+    <sheet name="Второй" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>Профиль обучения</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
+  </si>
+  <si>
+    <t>Количество студентов</t>
+  </si>
+  <si>
+    <t>Количество университетов</t>
+  </si>
+  <si>
+    <t>Названия университетов</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
+  </si>
+  <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
+  </si>
+  <si>
+    <t>LINGUISTICS</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет;</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений;</t>
+  </si>
   <si>
     <t>Название универа</t>
-  </si>
-  <si>
-    <t>Количество студентов</t>
   </si>
   <si>
     <t>МВУ</t>
@@ -46,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -56,7 +93,12 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="15.0"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -80,10 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -91,7 +136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -104,10 +149,108 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>4.539999961853027</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>4.329999923706055</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>14</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>5.0</v>
@@ -115,7 +258,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>3.0</v>
@@ -123,7 +266,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>1.0</v>
@@ -131,7 +274,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>2.0</v>
@@ -139,7 +282,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>0.0</v>
@@ -147,7 +290,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>0.0</v>
@@ -155,7 +298,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>0.0</v>

--- a/src/main/resources/InfoOut.xlsx
+++ b/src/main/resources/InfoOut.xlsx
@@ -30,24 +30,24 @@
     <t>Названия университетов</t>
   </si>
   <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
+  </si>
+  <si>
+    <t>LINGUISTICS</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет;</t>
+  </si>
+  <si>
     <t>PHYSICS</t>
   </si>
   <si>
     <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
   </si>
   <si>
-    <t>MEDICINE</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
-  </si>
-  <si>
-    <t>LINGUISTICS</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет;</t>
-  </si>
-  <si>
     <t>MATHEMATICS</t>
   </si>
   <si>
@@ -72,10 +72,10 @@
     <t>СМИ</t>
   </si>
   <si>
+    <t>КУВ</t>
+  </si>
+  <si>
     <t>ВЛПУ</t>
-  </si>
-  <si>
-    <t>КУВ</t>
   </si>
 </sst>
 </file>
@@ -164,13 +164,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.539999961853027</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -181,13 +181,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.329999923706055</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
@@ -198,13 +198,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>
